--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Jam2-Jam3.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Jam2-Jam3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.6862410970704</v>
+        <v>91.47356466666666</v>
       </c>
       <c r="H2">
-        <v>25.6862410970704</v>
+        <v>274.420694</v>
       </c>
       <c r="I2">
-        <v>0.524602459705812</v>
+        <v>0.7914295280104694</v>
       </c>
       <c r="J2">
-        <v>0.524602459705812</v>
+        <v>0.7914295280104694</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2815529571502</v>
+        <v>16.944289</v>
       </c>
       <c r="N2">
-        <v>14.2815529571502</v>
+        <v>50.832867</v>
       </c>
       <c r="O2">
-        <v>0.3148601853079269</v>
+        <v>0.2968502282295034</v>
       </c>
       <c r="P2">
-        <v>0.3148601853079269</v>
+        <v>0.2968502282295034</v>
       </c>
       <c r="Q2">
-        <v>366.8394124979388</v>
+        <v>1549.954515572189</v>
       </c>
       <c r="R2">
-        <v>366.8394124979388</v>
+        <v>13949.5906401497</v>
       </c>
       <c r="S2">
-        <v>0.1651764276759662</v>
+        <v>0.234936036017476</v>
       </c>
       <c r="T2">
-        <v>0.1651764276759662</v>
+        <v>0.234936036017476</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.6862410970704</v>
+        <v>91.47356466666666</v>
       </c>
       <c r="H3">
-        <v>25.6862410970704</v>
+        <v>274.420694</v>
       </c>
       <c r="I3">
-        <v>0.524602459705812</v>
+        <v>0.7914295280104694</v>
       </c>
       <c r="J3">
-        <v>0.524602459705812</v>
+        <v>0.7914295280104694</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.67230512302515</v>
+        <v>7.875246</v>
       </c>
       <c r="N3">
-        <v>7.67230512302515</v>
+        <v>23.625738</v>
       </c>
       <c r="O3">
-        <v>0.1691485106712579</v>
+        <v>0.1379679355364798</v>
       </c>
       <c r="P3">
-        <v>0.1691485106712579</v>
+        <v>0.1379679355364798</v>
       </c>
       <c r="Q3">
-        <v>197.0726791603124</v>
+        <v>720.376824246908</v>
       </c>
       <c r="R3">
-        <v>197.0726791603124</v>
+        <v>6483.391418222171</v>
       </c>
       <c r="S3">
-        <v>0.08873572475371667</v>
+        <v>0.1091918981022151</v>
       </c>
       <c r="T3">
-        <v>0.08873572475371667</v>
+        <v>0.1091918981022151</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.6862410970704</v>
+        <v>91.47356466666666</v>
       </c>
       <c r="H4">
-        <v>25.6862410970704</v>
+        <v>274.420694</v>
       </c>
       <c r="I4">
-        <v>0.524602459705812</v>
+        <v>0.7914295280104694</v>
       </c>
       <c r="J4">
-        <v>0.524602459705812</v>
+        <v>0.7914295280104694</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.4045378795524</v>
+        <v>32.26072766666666</v>
       </c>
       <c r="N4">
-        <v>23.4045378795524</v>
+        <v>96.78218299999999</v>
       </c>
       <c r="O4">
-        <v>0.5159913040208153</v>
+        <v>0.5651818362340167</v>
       </c>
       <c r="P4">
-        <v>0.5159913040208153</v>
+        <v>0.5651818362340167</v>
       </c>
       <c r="Q4">
-        <v>601.1746027396998</v>
+        <v>2951.003758410555</v>
       </c>
       <c r="R4">
-        <v>601.1746027396998</v>
+        <v>26559.03382569499</v>
       </c>
       <c r="S4">
-        <v>0.2706903072761291</v>
+        <v>0.4473015938907783</v>
       </c>
       <c r="T4">
-        <v>0.2706903072761291</v>
+        <v>0.4473015938907783</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.6733019070374</v>
+        <v>20.94207233333333</v>
       </c>
       <c r="H5">
-        <v>20.6733019070374</v>
+        <v>62.82621699999999</v>
       </c>
       <c r="I5">
-        <v>0.4222207908774013</v>
+        <v>0.181190866265331</v>
       </c>
       <c r="J5">
-        <v>0.4222207908774013</v>
+        <v>0.181190866265331</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.2815529571502</v>
+        <v>16.944289</v>
       </c>
       <c r="N5">
-        <v>14.2815529571502</v>
+        <v>50.832867</v>
       </c>
       <c r="O5">
-        <v>0.3148601853079269</v>
+        <v>0.2968502282295034</v>
       </c>
       <c r="P5">
-        <v>0.3148601853079269</v>
+        <v>0.2968502282295034</v>
       </c>
       <c r="Q5">
-        <v>295.2468559845088</v>
+        <v>354.8485258749043</v>
       </c>
       <c r="R5">
-        <v>295.2468559845088</v>
+        <v>3193.636732874138</v>
       </c>
       <c r="S5">
-        <v>0.132940516456518</v>
+        <v>0.05378655000396494</v>
       </c>
       <c r="T5">
-        <v>0.132940516456518</v>
+        <v>0.05378655000396493</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.6733019070374</v>
+        <v>20.94207233333333</v>
       </c>
       <c r="H6">
-        <v>20.6733019070374</v>
+        <v>62.82621699999999</v>
       </c>
       <c r="I6">
-        <v>0.4222207908774013</v>
+        <v>0.181190866265331</v>
       </c>
       <c r="J6">
-        <v>0.4222207908774013</v>
+        <v>0.181190866265331</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.67230512302515</v>
+        <v>7.875246</v>
       </c>
       <c r="N6">
-        <v>7.67230512302515</v>
+        <v>23.625738</v>
       </c>
       <c r="O6">
-        <v>0.1691485106712579</v>
+        <v>0.1379679355364798</v>
       </c>
       <c r="P6">
-        <v>0.1691485106712579</v>
+        <v>0.1379679355364798</v>
       </c>
       <c r="Q6">
-        <v>158.6118801312086</v>
+        <v>164.923971374794</v>
       </c>
       <c r="R6">
-        <v>158.6118801312086</v>
+        <v>1484.315742373146</v>
       </c>
       <c r="S6">
-        <v>0.07141801795135307</v>
+        <v>0.02499852975669412</v>
       </c>
       <c r="T6">
-        <v>0.07141801795135307</v>
+        <v>0.02499852975669412</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.6733019070374</v>
+        <v>20.94207233333333</v>
       </c>
       <c r="H7">
-        <v>20.6733019070374</v>
+        <v>62.82621699999999</v>
       </c>
       <c r="I7">
-        <v>0.4222207908774013</v>
+        <v>0.181190866265331</v>
       </c>
       <c r="J7">
-        <v>0.4222207908774013</v>
+        <v>0.181190866265331</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.4045378795524</v>
+        <v>32.26072766666666</v>
       </c>
       <c r="N7">
-        <v>23.4045378795524</v>
+        <v>96.78218299999999</v>
       </c>
       <c r="O7">
-        <v>0.5159913040208153</v>
+        <v>0.5651818362340167</v>
       </c>
       <c r="P7">
-        <v>0.5159913040208153</v>
+        <v>0.5651818362340167</v>
       </c>
       <c r="Q7">
-        <v>483.8490775786797</v>
+        <v>675.6064923213011</v>
       </c>
       <c r="R7">
-        <v>483.8490775786797</v>
+        <v>6080.458430891709</v>
       </c>
       <c r="S7">
-        <v>0.2178622564695303</v>
+        <v>0.1024057865046719</v>
       </c>
       <c r="T7">
-        <v>0.2178622564695303</v>
+        <v>0.1024057865046719</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.60370644667594</v>
+        <v>3.164539666666667</v>
       </c>
       <c r="H8">
-        <v>2.60370644667594</v>
+        <v>9.493619000000001</v>
       </c>
       <c r="I8">
-        <v>0.05317674941678658</v>
+        <v>0.02737960572419959</v>
       </c>
       <c r="J8">
-        <v>0.05317674941678658</v>
+        <v>0.02737960572419959</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.2815529571502</v>
+        <v>16.944289</v>
       </c>
       <c r="N8">
-        <v>14.2815529571502</v>
+        <v>50.832867</v>
       </c>
       <c r="O8">
-        <v>0.3148601853079269</v>
+        <v>0.2968502282295034</v>
       </c>
       <c r="P8">
-        <v>0.3148601853079269</v>
+        <v>0.2968502282295034</v>
       </c>
       <c r="Q8">
-        <v>37.18497150307581</v>
+        <v>53.62087466396367</v>
       </c>
       <c r="R8">
-        <v>37.18497150307581</v>
+        <v>482.587871975673</v>
       </c>
       <c r="S8">
-        <v>0.01674324117544261</v>
+        <v>0.008127642208062467</v>
       </c>
       <c r="T8">
-        <v>0.01674324117544261</v>
+        <v>0.008127642208062466</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.60370644667594</v>
+        <v>3.164539666666667</v>
       </c>
       <c r="H9">
-        <v>2.60370644667594</v>
+        <v>9.493619000000001</v>
       </c>
       <c r="I9">
-        <v>0.05317674941678658</v>
+        <v>0.02737960572419959</v>
       </c>
       <c r="J9">
-        <v>0.05317674941678658</v>
+        <v>0.02737960572419959</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.67230512302515</v>
+        <v>7.875246</v>
       </c>
       <c r="N9">
-        <v>7.67230512302515</v>
+        <v>23.625738</v>
       </c>
       <c r="O9">
-        <v>0.1691485106712579</v>
+        <v>0.1379679355364798</v>
       </c>
       <c r="P9">
-        <v>0.1691485106712579</v>
+        <v>0.1379679355364798</v>
       </c>
       <c r="Q9">
-        <v>19.97643030968542</v>
+        <v>24.921528351758</v>
       </c>
       <c r="R9">
-        <v>19.97643030968542</v>
+        <v>224.293755165822</v>
       </c>
       <c r="S9">
-        <v>0.008994767966188132</v>
+        <v>0.003777507677570603</v>
       </c>
       <c r="T9">
-        <v>0.008994767966188132</v>
+        <v>0.003777507677570602</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.60370644667594</v>
+        <v>3.164539666666667</v>
       </c>
       <c r="H10">
-        <v>2.60370644667594</v>
+        <v>9.493619000000001</v>
       </c>
       <c r="I10">
-        <v>0.05317674941678658</v>
+        <v>0.02737960572419959</v>
       </c>
       <c r="J10">
-        <v>0.05317674941678658</v>
+        <v>0.02737960572419959</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.4045378795524</v>
+        <v>32.26072766666666</v>
       </c>
       <c r="N10">
-        <v>23.4045378795524</v>
+        <v>96.78218299999999</v>
       </c>
       <c r="O10">
-        <v>0.5159913040208153</v>
+        <v>0.5651818362340167</v>
       </c>
       <c r="P10">
-        <v>0.5159913040208153</v>
+        <v>0.5651818362340167</v>
       </c>
       <c r="Q10">
-        <v>60.93854615846182</v>
+        <v>102.0903523766974</v>
       </c>
       <c r="R10">
-        <v>60.93854615846182</v>
+        <v>918.8131713902769</v>
       </c>
       <c r="S10">
-        <v>0.02743874027515584</v>
+        <v>0.01547445583856652</v>
       </c>
       <c r="T10">
-        <v>0.02743874027515584</v>
+        <v>0.01547445583856652</v>
       </c>
     </row>
   </sheetData>
